--- a/DailyReport/template.xlsx
+++ b/DailyReport/template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="278">
   <si>
     <t>產品別</t>
   </si>
@@ -3280,14 +3280,11 @@
     <xf numFmtId="181" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="179" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3295,64 +3292,7 @@
     <xf numFmtId="179" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="183" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3420,11 +3360,71 @@
     <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3740,8 +3740,8 @@
   <dimension ref="A1:IU1913"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B126" sqref="B126:C126"/>
+      <pane ySplit="8" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -3775,8 +3775,8 @@
       <c r="F1" s="2"/>
       <c r="G1" s="39"/>
       <c r="H1" s="25"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
     </row>
@@ -3796,29 +3796,29 @@
       <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="148"/>
-      <c r="Q3" s="148"/>
-      <c r="R3" s="148"/>
-      <c r="S3" s="148"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
     </row>
     <row r="4" spans="1:32" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="21"/>
@@ -3844,51 +3844,51 @@
       <c r="G5" s="40"/>
       <c r="H5" s="31"/>
       <c r="I5" s="32"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
       <c r="L5" s="31"/>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
       <c r="Q5" s="99" t="s">
         <v>209</v>
       </c>
-      <c r="R5" s="167" t="s">
+      <c r="R5" s="147" t="s">
         <v>210</v>
       </c>
-      <c r="S5" s="167"/>
-      <c r="T5" s="167"/>
-      <c r="U5" s="167"/>
+      <c r="S5" s="147"/>
+      <c r="T5" s="147"/>
+      <c r="U5" s="147"/>
     </row>
     <row r="6" spans="1:32" s="4" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="149" t="s">
+      <c r="A6" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="139" t="s">
+      <c r="B6" s="130"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="160" t="s">
         <v>244</v>
       </c>
-      <c r="G6" s="164" t="s">
+      <c r="G6" s="144" t="s">
         <v>211</v>
       </c>
-      <c r="H6" s="158" t="s">
+      <c r="H6" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="159"/>
-      <c r="T6" s="159"/>
-      <c r="U6" s="159"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="139"/>
+      <c r="R6" s="139"/>
+      <c r="S6" s="139"/>
+      <c r="T6" s="139"/>
+      <c r="U6" s="139"/>
       <c r="V6" s="5"/>
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
@@ -3902,36 +3902,36 @@
       <c r="AF6" s="70"/>
     </row>
     <row r="7" spans="1:32" s="4" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="152"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="162" t="s">
+      <c r="A7" s="132"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="142" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
-      <c r="L7" s="160" t="s">
+      <c r="L7" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="138" t="s">
+      <c r="M7" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="136" t="s">
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="159"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="159"/>
+      <c r="S7" s="159"/>
+      <c r="T7" s="157" t="s">
         <v>245</v>
       </c>
-      <c r="U7" s="137"/>
-      <c r="V7" s="132"/>
+      <c r="U7" s="158"/>
+      <c r="V7" s="153"/>
       <c r="W7" s="60"/>
       <c r="X7" s="60"/>
       <c r="Y7" s="60"/>
@@ -3944,14 +3944,14 @@
       <c r="AF7" s="70"/>
     </row>
     <row r="8" spans="1:32" s="4" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="155"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="163"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="143"/>
       <c r="I8" s="34" t="e">
         <v>#REF!</v>
       </c>
@@ -3961,7 +3961,7 @@
       <c r="K8" s="34" t="e">
         <v>#REF!</v>
       </c>
-      <c r="L8" s="161"/>
+      <c r="L8" s="141"/>
       <c r="M8" s="38" t="s">
         <v>212</v>
       </c>
@@ -3989,7 +3989,7 @@
       <c r="U8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="V8" s="132"/>
+      <c r="V8" s="153"/>
       <c r="W8" s="106" t="s">
         <v>219</v>
       </c>
@@ -4007,13 +4007,13 @@
       <c r="A9" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120" t="s">
+      <c r="C9" s="124"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163" t="s">
         <v>228</v>
       </c>
       <c r="G9" s="57"/>
@@ -4046,13 +4046,13 @@
       <c r="A10" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
       <c r="G10" s="61"/>
       <c r="H10" s="61"/>
       <c r="I10" s="36"/>
@@ -4083,10 +4083,10 @@
       <c r="A11" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="124"/>
+      <c r="C11" s="123"/>
       <c r="D11" s="10" t="s">
         <v>202</v>
       </c>
@@ -4126,10 +4126,10 @@
       <c r="A12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="124"/>
+      <c r="C12" s="123"/>
       <c r="D12" s="10" t="s">
         <v>202</v>
       </c>
@@ -4169,10 +4169,10 @@
       <c r="A13" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="124"/>
+      <c r="C13" s="123"/>
       <c r="D13" s="10" t="s">
         <v>202</v>
       </c>
@@ -4212,10 +4212,10 @@
       <c r="A14" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="124"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10">
@@ -4252,10 +4252,10 @@
       <c r="A15" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="124"/>
+      <c r="C15" s="123"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10">
@@ -4291,10 +4291,10 @@
       <c r="A16" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="124"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10">
@@ -4330,10 +4330,10 @@
       <c r="A17" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="124"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10">
@@ -4369,10 +4369,10 @@
       <c r="A18" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="124"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10">
@@ -4408,10 +4408,10 @@
       <c r="A19" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="123" t="s">
+      <c r="B19" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="124"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10">
@@ -4447,10 +4447,10 @@
       <c r="A20" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="124"/>
+      <c r="C20" s="123"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10">
@@ -4486,10 +4486,10 @@
       <c r="A21" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="124"/>
+      <c r="C21" s="123"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10">
@@ -4525,10 +4525,10 @@
       <c r="A22" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="123" t="s">
+      <c r="B22" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="124"/>
+      <c r="C22" s="123"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10">
@@ -4564,10 +4564,10 @@
       <c r="A23" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="124"/>
+      <c r="C23" s="123"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10">
@@ -4603,10 +4603,10 @@
       <c r="A24" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="124"/>
+      <c r="C24" s="123"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10">
@@ -4642,10 +4642,10 @@
       <c r="A25" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="124"/>
+      <c r="C25" s="123"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10">
@@ -4681,10 +4681,10 @@
       <c r="A26" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="123" t="s">
+      <c r="B26" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="124"/>
+      <c r="C26" s="123"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10">
@@ -4720,10 +4720,10 @@
       <c r="A27" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="123" t="s">
+      <c r="B27" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="124"/>
+      <c r="C27" s="123"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10">
@@ -4759,10 +4759,10 @@
       <c r="A28" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="123" t="s">
+      <c r="B28" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="124"/>
+      <c r="C28" s="123"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10">
@@ -4824,10 +4824,10 @@
       <c r="A29" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="124"/>
+      <c r="C29" s="123"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10">
@@ -4890,10 +4890,10 @@
       <c r="A30" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="123" t="s">
+      <c r="B30" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="124"/>
+      <c r="C30" s="123"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10">
@@ -4956,10 +4956,10 @@
       <c r="A31" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="123" t="s">
+      <c r="B31" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="124"/>
+      <c r="C31" s="123"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10">
@@ -4995,10 +4995,10 @@
       <c r="A32" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="123" t="s">
+      <c r="B32" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="124"/>
+      <c r="C32" s="123"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10">
@@ -5034,10 +5034,10 @@
       <c r="A33" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="123" t="s">
+      <c r="B33" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="124"/>
+      <c r="C33" s="123"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10">
@@ -5074,10 +5074,10 @@
       <c r="A34" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="123" t="s">
+      <c r="B34" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="124"/>
+      <c r="C34" s="123"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10">
@@ -5113,10 +5113,10 @@
       <c r="A35" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="123" t="s">
+      <c r="B35" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="124"/>
+      <c r="C35" s="123"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10">
@@ -5152,10 +5152,10 @@
       <c r="A36" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="123" t="s">
+      <c r="B36" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="124"/>
+      <c r="C36" s="123"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10">
@@ -5191,10 +5191,10 @@
       <c r="A37" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="123" t="s">
+      <c r="B37" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="124"/>
+      <c r="C37" s="123"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10">
@@ -5230,10 +5230,10 @@
       <c r="A38" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="123" t="s">
+      <c r="B38" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="124"/>
+      <c r="C38" s="123"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10">
@@ -5269,10 +5269,10 @@
       <c r="A39" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="123" t="s">
+      <c r="B39" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="124"/>
+      <c r="C39" s="123"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10">
@@ -5308,10 +5308,10 @@
       <c r="A40" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="123" t="s">
+      <c r="B40" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="124"/>
+      <c r="C40" s="123"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10">
@@ -5347,10 +5347,10 @@
       <c r="A41" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="123" t="s">
+      <c r="B41" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="124"/>
+      <c r="C41" s="123"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10" t="e">
@@ -5386,10 +5386,10 @@
       <c r="A42" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="123" t="s">
+      <c r="B42" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="124"/>
+      <c r="C42" s="123"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10">
@@ -5426,10 +5426,10 @@
       <c r="A43" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="128" t="s">
+      <c r="B43" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="129"/>
+      <c r="C43" s="149"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10" t="e">
@@ -5465,10 +5465,10 @@
       <c r="A44" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="128" t="s">
+      <c r="B44" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="129"/>
+      <c r="C44" s="149"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10" t="e">
@@ -5504,10 +5504,10 @@
       <c r="A45" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="123" t="s">
+      <c r="B45" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="124"/>
+      <c r="C45" s="123"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10" t="e">
@@ -5543,10 +5543,10 @@
       <c r="A46" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="123" t="s">
+      <c r="B46" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="124"/>
+      <c r="C46" s="123"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10" t="e">
@@ -5582,10 +5582,10 @@
       <c r="A47" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="123" t="s">
+      <c r="B47" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="124"/>
+      <c r="C47" s="123"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10" t="e">
@@ -5621,10 +5621,10 @@
       <c r="A48" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="123" t="s">
+      <c r="B48" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="124"/>
+      <c r="C48" s="123"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10" t="e">
@@ -5660,10 +5660,10 @@
       <c r="A49" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="123" t="s">
+      <c r="B49" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="124"/>
+      <c r="C49" s="123"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10" t="e">
@@ -5699,10 +5699,10 @@
       <c r="A50" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="B50" s="123" t="s">
+      <c r="B50" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="124"/>
+      <c r="C50" s="123"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10" t="e">
@@ -5738,10 +5738,10 @@
       <c r="A51" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="123" t="s">
+      <c r="B51" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="124"/>
+      <c r="C51" s="123"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10" t="e">
@@ -5777,10 +5777,10 @@
       <c r="A52" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="123" t="s">
+      <c r="B52" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="124"/>
+      <c r="C52" s="123"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10" t="e">
@@ -5816,10 +5816,10 @@
       <c r="A53" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="123" t="s">
+      <c r="B53" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="124"/>
+      <c r="C53" s="123"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10" t="e">
@@ -5855,10 +5855,10 @@
       <c r="A54" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="123" t="s">
+      <c r="B54" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="124"/>
+      <c r="C54" s="123"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10" t="e">
@@ -5894,10 +5894,10 @@
       <c r="A55" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="B55" s="123" t="s">
+      <c r="B55" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="124"/>
+      <c r="C55" s="123"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10" t="e">
@@ -5933,10 +5933,10 @@
       <c r="A56" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="123" t="s">
+      <c r="B56" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="C56" s="124"/>
+      <c r="C56" s="123"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10" t="e">
@@ -5972,10 +5972,10 @@
       <c r="A57" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="123" t="s">
+      <c r="B57" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="124"/>
+      <c r="C57" s="123"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10">
@@ -6011,10 +6011,10 @@
       <c r="A58" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="B58" s="123" t="s">
+      <c r="B58" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="124"/>
+      <c r="C58" s="123"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10">
@@ -6048,10 +6048,10 @@
       <c r="A59" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="B59" s="123" t="s">
+      <c r="B59" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="124"/>
+      <c r="C59" s="123"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10">
@@ -6087,10 +6087,10 @@
       <c r="A60" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="B60" s="123" t="s">
+      <c r="B60" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="124"/>
+      <c r="C60" s="123"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10">
@@ -6126,10 +6126,10 @@
       <c r="A61" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="B61" s="123" t="s">
+      <c r="B61" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="124"/>
+      <c r="C61" s="123"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10">
@@ -6165,10 +6165,10 @@
       <c r="A62" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="123" t="s">
+      <c r="B62" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="124"/>
+      <c r="C62" s="123"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10" t="e">
@@ -6205,10 +6205,10 @@
       <c r="A63" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="B63" s="123" t="s">
+      <c r="B63" s="122" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="124"/>
+      <c r="C63" s="123"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10">
@@ -6244,10 +6244,10 @@
       <c r="A64" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="B64" s="123" t="s">
+      <c r="B64" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="124"/>
+      <c r="C64" s="123"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10">
@@ -6284,10 +6284,10 @@
       <c r="A65" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="B65" s="123" t="s">
+      <c r="B65" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="124"/>
+      <c r="C65" s="123"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10">
@@ -6323,10 +6323,10 @@
       <c r="A66" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="B66" s="123" t="s">
+      <c r="B66" s="122" t="s">
         <v>112</v>
       </c>
-      <c r="C66" s="124"/>
+      <c r="C66" s="123"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10">
@@ -6363,10 +6363,10 @@
       <c r="A67" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="B67" s="123" t="s">
+      <c r="B67" s="122" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="124"/>
+      <c r="C67" s="123"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10">
@@ -6402,10 +6402,10 @@
       <c r="A68" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="123" t="s">
+      <c r="B68" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="C68" s="124"/>
+      <c r="C68" s="123"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
       <c r="F68" s="10">
@@ -6441,10 +6441,10 @@
       <c r="A69" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="123" t="s">
+      <c r="B69" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="C69" s="124"/>
+      <c r="C69" s="123"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10">
@@ -6481,10 +6481,10 @@
       <c r="A70" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="B70" s="123" t="s">
+      <c r="B70" s="122" t="s">
         <v>120</v>
       </c>
-      <c r="C70" s="124"/>
+      <c r="C70" s="123"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
       <c r="F70" s="10">
@@ -6520,10 +6520,10 @@
       <c r="A71" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="130" t="s">
+      <c r="B71" s="165" t="s">
         <v>226</v>
       </c>
-      <c r="C71" s="131"/>
+      <c r="C71" s="166"/>
       <c r="D71" s="58"/>
       <c r="E71" s="58"/>
       <c r="F71" s="10">
@@ -6558,10 +6558,10 @@
     </row>
     <row r="72" spans="1:32" s="70" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="117"/>
-      <c r="B72" s="127" t="s">
+      <c r="B72" s="167" t="s">
         <v>227</v>
       </c>
-      <c r="C72" s="124"/>
+      <c r="C72" s="123"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
       <c r="F72" s="10" t="s">
@@ -6594,14 +6594,14 @@
     </row>
     <row r="73" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="52"/>
-      <c r="B73" s="142" t="s">
+      <c r="B73" s="150" t="s">
         <v>208</v>
       </c>
-      <c r="C73" s="143"/>
-      <c r="D73" s="143">
+      <c r="C73" s="151"/>
+      <c r="D73" s="151">
         <v>35.200000000000003</v>
       </c>
-      <c r="E73" s="144"/>
+      <c r="E73" s="152"/>
       <c r="F73" s="10" t="s">
         <v>230</v>
       </c>
@@ -6635,10 +6635,10 @@
       <c r="A74" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="B74" s="123" t="s">
+      <c r="B74" s="122" t="s">
         <v>123</v>
       </c>
-      <c r="C74" s="124"/>
+      <c r="C74" s="123"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10">
@@ -6674,10 +6674,10 @@
       <c r="A75" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="B75" s="123" t="s">
+      <c r="B75" s="122" t="s">
         <v>125</v>
       </c>
-      <c r="C75" s="124"/>
+      <c r="C75" s="123"/>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
       <c r="F75" s="10">
@@ -6713,10 +6713,10 @@
       <c r="A76" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="B76" s="123" t="s">
+      <c r="B76" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="C76" s="124"/>
+      <c r="C76" s="123"/>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
       <c r="F76" s="10">
@@ -6753,10 +6753,10 @@
       <c r="A77" s="53">
         <v>0</v>
       </c>
-      <c r="B77" s="123" t="s">
+      <c r="B77" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="C77" s="124"/>
+      <c r="C77" s="123"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="10" t="s">
@@ -6792,10 +6792,10 @@
       <c r="A78" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="B78" s="123" t="s">
+      <c r="B78" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="C78" s="124"/>
+      <c r="C78" s="123"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
       <c r="F78" s="10">
@@ -6832,10 +6832,10 @@
       <c r="A79" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="B79" s="123" t="s">
+      <c r="B79" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="C79" s="124"/>
+      <c r="C79" s="123"/>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
       <c r="F79" s="10">
@@ -6872,10 +6872,10 @@
       <c r="A80" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="B80" s="123" t="s">
+      <c r="B80" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="C80" s="124"/>
+      <c r="C80" s="123"/>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
       <c r="F80" s="10">
@@ -6911,10 +6911,10 @@
       <c r="A81" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="B81" s="123" t="s">
+      <c r="B81" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="C81" s="124"/>
+      <c r="C81" s="123"/>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
       <c r="F81" s="10">
@@ -6950,10 +6950,10 @@
       <c r="A82" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="B82" s="123" t="s">
+      <c r="B82" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="124"/>
+      <c r="C82" s="123"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
       <c r="F82" s="10">
@@ -6990,10 +6990,10 @@
       <c r="A83" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="B83" s="123" t="s">
+      <c r="B83" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="C83" s="124"/>
+      <c r="C83" s="123"/>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10" t="s">
@@ -7030,10 +7030,10 @@
       <c r="A84" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="B84" s="123" t="s">
+      <c r="B84" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="C84" s="124"/>
+      <c r="C84" s="123"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10" t="s">
@@ -7070,10 +7070,10 @@
       <c r="A85" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="B85" s="123" t="s">
+      <c r="B85" s="122" t="s">
         <v>144</v>
       </c>
-      <c r="C85" s="124"/>
+      <c r="C85" s="123"/>
       <c r="D85" s="10"/>
       <c r="E85" s="10"/>
       <c r="F85" s="10" t="s">
@@ -7110,10 +7110,10 @@
       <c r="A86" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="B86" s="123" t="s">
+      <c r="B86" s="122" t="s">
         <v>146</v>
       </c>
-      <c r="C86" s="124"/>
+      <c r="C86" s="123"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
       <c r="F86" s="10" t="s">
@@ -7150,10 +7150,10 @@
       <c r="A87" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="B87" s="123" t="s">
+      <c r="B87" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="124"/>
+      <c r="C87" s="123"/>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
       <c r="F87" s="10" t="s">
@@ -7190,10 +7190,10 @@
       <c r="A88" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="B88" s="123" t="s">
+      <c r="B88" s="122" t="s">
         <v>223</v>
       </c>
-      <c r="C88" s="124"/>
+      <c r="C88" s="123"/>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
       <c r="F88" s="10">
@@ -7229,10 +7229,10 @@
       <c r="A89" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="B89" s="123" t="s">
+      <c r="B89" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C89" s="124"/>
+      <c r="C89" s="123"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
       <c r="F89" s="10" t="s">
@@ -7268,10 +7268,10 @@
       <c r="A90" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="B90" s="123" t="s">
+      <c r="B90" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C90" s="124"/>
+      <c r="C90" s="123"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10" t="s">
@@ -7307,10 +7307,10 @@
       <c r="A91" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="B91" s="123" t="s">
+      <c r="B91" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C91" s="124"/>
+      <c r="C91" s="123"/>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
       <c r="F91" s="10" t="s">
@@ -7346,10 +7346,10 @@
       <c r="A92" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="B92" s="123" t="s">
+      <c r="B92" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C92" s="124"/>
+      <c r="C92" s="123"/>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
       <c r="F92" s="10" t="s">
@@ -7385,10 +7385,10 @@
       <c r="A93" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="B93" s="123" t="s">
+      <c r="B93" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C93" s="124"/>
+      <c r="C93" s="123"/>
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
       <c r="F93" s="10" t="s">
@@ -7424,10 +7424,10 @@
       <c r="A94" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="B94" s="123" t="s">
+      <c r="B94" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C94" s="124"/>
+      <c r="C94" s="123"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
       <c r="F94" s="10" t="s">
@@ -7463,10 +7463,10 @@
       <c r="A95" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="B95" s="123" t="s">
+      <c r="B95" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C95" s="124"/>
+      <c r="C95" s="123"/>
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
       <c r="F95" s="10" t="s">
@@ -7502,10 +7502,10 @@
       <c r="A96" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="B96" s="123" t="s">
+      <c r="B96" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C96" s="124"/>
+      <c r="C96" s="123"/>
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
       <c r="F96" s="10" t="s">
@@ -7541,10 +7541,10 @@
       <c r="A97" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="B97" s="123" t="s">
+      <c r="B97" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C97" s="124"/>
+      <c r="C97" s="123"/>
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10" t="s">
@@ -7580,10 +7580,10 @@
       <c r="A98" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="B98" s="123" t="s">
+      <c r="B98" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="124"/>
+      <c r="C98" s="123"/>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
       <c r="F98" s="10" t="s">
@@ -7619,10 +7619,10 @@
       <c r="A99" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B99" s="123" t="s">
+      <c r="B99" s="122" t="s">
         <v>235</v>
       </c>
-      <c r="C99" s="124"/>
+      <c r="C99" s="123"/>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
       <c r="F99" s="10" t="s">
@@ -7658,10 +7658,10 @@
       <c r="A100" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="B100" s="123" t="s">
+      <c r="B100" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="C100" s="124"/>
+      <c r="C100" s="123"/>
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
       <c r="F100" s="10" t="s">
@@ -7697,10 +7697,10 @@
       <c r="A101" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="B101" s="125" t="s">
+      <c r="B101" s="168" t="s">
         <v>164</v>
       </c>
-      <c r="C101" s="126"/>
+      <c r="C101" s="169"/>
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
       <c r="F101" s="10" t="s">
@@ -7736,10 +7736,10 @@
       <c r="A102" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="B102" s="123" t="s">
+      <c r="B102" s="122" t="s">
         <v>166</v>
       </c>
-      <c r="C102" s="124"/>
+      <c r="C102" s="123"/>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
       <c r="F102" s="10" t="s">
@@ -7775,10 +7775,10 @@
       <c r="A103" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="B103" s="123" t="s">
+      <c r="B103" s="122" t="s">
         <v>168</v>
       </c>
-      <c r="C103" s="124"/>
+      <c r="C103" s="123"/>
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
       <c r="F103" s="10" t="s">
@@ -7814,10 +7814,10 @@
       <c r="A104" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="B104" s="123" t="s">
+      <c r="B104" s="122" t="s">
         <v>170</v>
       </c>
-      <c r="C104" s="124"/>
+      <c r="C104" s="123"/>
       <c r="D104" s="10"/>
       <c r="E104" s="10"/>
       <c r="F104" s="10" t="s">
@@ -7853,10 +7853,10 @@
       <c r="A105" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="B105" s="123" t="s">
+      <c r="B105" s="122" t="s">
         <v>172</v>
       </c>
-      <c r="C105" s="124"/>
+      <c r="C105" s="123"/>
       <c r="D105" s="10"/>
       <c r="E105" s="10"/>
       <c r="F105" s="10" t="s">
@@ -7892,10 +7892,10 @@
       <c r="A106" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="B106" s="123" t="s">
+      <c r="B106" s="122" t="s">
         <v>174</v>
       </c>
-      <c r="C106" s="124"/>
+      <c r="C106" s="123"/>
       <c r="D106" s="10"/>
       <c r="E106" s="10"/>
       <c r="F106" s="10" t="s">
@@ -7931,10 +7931,10 @@
       <c r="A107" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="B107" s="123" t="s">
+      <c r="B107" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="C107" s="124"/>
+      <c r="C107" s="123"/>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
       <c r="F107" s="10" t="s">
@@ -7970,10 +7970,10 @@
       <c r="A108" s="53" t="s">
         <v>177</v>
       </c>
-      <c r="B108" s="125" t="s">
+      <c r="B108" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="C108" s="126"/>
+      <c r="C108" s="169"/>
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
       <c r="F108" s="10" t="s">
@@ -8009,10 +8009,10 @@
       <c r="A109" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="B109" s="125" t="s">
+      <c r="B109" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="C109" s="126"/>
+      <c r="C109" s="169"/>
       <c r="D109" s="10"/>
       <c r="E109" s="10"/>
       <c r="F109" s="10" t="s">
@@ -8048,10 +8048,10 @@
       <c r="A110" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="B110" s="125" t="s">
+      <c r="B110" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="C110" s="126"/>
+      <c r="C110" s="169"/>
       <c r="D110" s="10"/>
       <c r="E110" s="10"/>
       <c r="F110" s="10" t="s">
@@ -8087,10 +8087,10 @@
       <c r="A111" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="B111" s="125" t="s">
+      <c r="B111" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="C111" s="126"/>
+      <c r="C111" s="169"/>
       <c r="D111" s="10"/>
       <c r="E111" s="10"/>
       <c r="F111" s="10" t="s">
@@ -8126,10 +8126,10 @@
       <c r="A112" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="B112" s="125" t="s">
+      <c r="B112" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="C112" s="126"/>
+      <c r="C112" s="169"/>
       <c r="D112" s="10"/>
       <c r="E112" s="10"/>
       <c r="F112" s="10" t="s">
@@ -8165,10 +8165,10 @@
       <c r="A113" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="B113" s="125" t="s">
+      <c r="B113" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="C113" s="126"/>
+      <c r="C113" s="169"/>
       <c r="D113" s="10"/>
       <c r="E113" s="10"/>
       <c r="F113" s="10" t="s">
@@ -8204,10 +8204,10 @@
       <c r="A114" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="B114" s="125" t="s">
+      <c r="B114" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="C114" s="126"/>
+      <c r="C114" s="169"/>
       <c r="D114" s="10"/>
       <c r="E114" s="10"/>
       <c r="F114" s="10" t="s">
@@ -8243,10 +8243,10 @@
       <c r="A115" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="B115" s="123" t="s">
+      <c r="B115" s="122" t="s">
         <v>236</v>
       </c>
-      <c r="C115" s="124"/>
+      <c r="C115" s="123"/>
       <c r="D115" s="10"/>
       <c r="E115" s="10"/>
       <c r="F115" s="10">
@@ -8282,10 +8282,10 @@
       <c r="A116" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="B116" s="123" t="s">
+      <c r="B116" s="122" t="s">
         <v>242</v>
       </c>
-      <c r="C116" s="124"/>
+      <c r="C116" s="123"/>
       <c r="D116" s="10"/>
       <c r="E116" s="10"/>
       <c r="F116" s="10">
@@ -8321,10 +8321,10 @@
       <c r="A117" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="B117" s="123" t="s">
+      <c r="B117" s="122" t="s">
         <v>237</v>
       </c>
-      <c r="C117" s="124"/>
+      <c r="C117" s="123"/>
       <c r="D117" s="10"/>
       <c r="E117" s="10"/>
       <c r="F117" s="10">
@@ -8360,10 +8360,10 @@
       <c r="A118" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="B118" s="123" t="s">
+      <c r="B118" s="122" t="s">
         <v>238</v>
       </c>
-      <c r="C118" s="124"/>
+      <c r="C118" s="123"/>
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
       <c r="F118" s="10">
@@ -8399,10 +8399,10 @@
       <c r="A119" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="B119" s="123" t="s">
+      <c r="B119" s="122" t="s">
         <v>239</v>
       </c>
-      <c r="C119" s="124"/>
+      <c r="C119" s="123"/>
       <c r="D119" s="10"/>
       <c r="E119" s="10"/>
       <c r="F119" s="10">
@@ -8439,10 +8439,10 @@
       <c r="A120" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="B120" s="123" t="s">
+      <c r="B120" s="122" t="s">
         <v>240</v>
       </c>
-      <c r="C120" s="124"/>
+      <c r="C120" s="123"/>
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
       <c r="F120" s="10">
@@ -8479,10 +8479,10 @@
       <c r="A121" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="B121" s="123" t="s">
+      <c r="B121" s="122" t="s">
         <v>241</v>
       </c>
-      <c r="C121" s="124"/>
+      <c r="C121" s="123"/>
       <c r="D121" s="10"/>
       <c r="E121" s="10"/>
       <c r="F121" s="10">
@@ -8518,10 +8518,10 @@
       <c r="A122" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="B122" s="123" t="s">
+      <c r="B122" s="122" t="s">
         <v>193</v>
       </c>
-      <c r="C122" s="124"/>
+      <c r="C122" s="123"/>
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
       <c r="F122" s="10">
@@ -8557,10 +8557,10 @@
       <c r="A123" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="B123" s="123" t="s">
+      <c r="B123" s="122" t="s">
         <v>195</v>
       </c>
-      <c r="C123" s="124"/>
+      <c r="C123" s="123"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10">
@@ -8596,14 +8596,14 @@
       <c r="A124" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="B124" s="123" t="s">
+      <c r="B124" s="122" t="s">
         <v>197</v>
       </c>
-      <c r="C124" s="124"/>
+      <c r="C124" s="123"/>
       <c r="D124" s="10"/>
       <c r="E124" s="10"/>
-      <c r="F124" s="10" t="s">
-        <v>220</v>
+      <c r="F124" s="10">
+        <v>508.9</v>
       </c>
       <c r="G124" s="63"/>
       <c r="H124" s="63"/>
@@ -8635,10 +8635,10 @@
       <c r="A125" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="B125" s="123" t="s">
+      <c r="B125" s="122" t="s">
         <v>277</v>
       </c>
-      <c r="C125" s="124"/>
+      <c r="C125" s="123"/>
       <c r="D125" s="10"/>
       <c r="E125" s="10"/>
       <c r="F125" s="10">
@@ -8649,7 +8649,7 @@
       <c r="I125" s="46"/>
       <c r="J125" s="46"/>
       <c r="K125" s="46"/>
-      <c r="L125" s="168"/>
+      <c r="L125" s="120"/>
       <c r="M125" s="57"/>
       <c r="N125" s="57"/>
       <c r="O125" s="57"/>
@@ -8672,10 +8672,10 @@
       <c r="A126" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="B126" s="123" t="s">
+      <c r="B126" s="122" t="s">
         <v>229</v>
       </c>
-      <c r="C126" s="124"/>
+      <c r="C126" s="123"/>
       <c r="D126" s="10"/>
       <c r="E126" s="10"/>
       <c r="F126" s="10">
@@ -8686,7 +8686,7 @@
       <c r="I126" s="46"/>
       <c r="J126" s="46"/>
       <c r="K126" s="46"/>
-      <c r="L126" s="168"/>
+      <c r="L126" s="120"/>
       <c r="M126" s="57"/>
       <c r="N126" s="57"/>
       <c r="O126" s="57"/>
@@ -8709,10 +8709,10 @@
       <c r="A127" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="B127" s="122" t="s">
+      <c r="B127" s="124" t="s">
         <v>201</v>
       </c>
-      <c r="C127" s="122"/>
+      <c r="C127" s="124"/>
       <c r="D127" s="10"/>
       <c r="E127" s="10"/>
       <c r="F127" s="10">
@@ -8723,7 +8723,7 @@
       <c r="I127" s="46"/>
       <c r="J127" s="46"/>
       <c r="K127" s="46"/>
-      <c r="L127" s="168"/>
+      <c r="L127" s="120"/>
       <c r="M127" s="57"/>
       <c r="N127" s="57"/>
       <c r="O127" s="57"/>
@@ -8743,13 +8743,13 @@
       <c r="AD127" s="61"/>
     </row>
     <row r="128" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="169">
+      <c r="A128" s="121">
         <v>94</v>
       </c>
-      <c r="B128" s="123" t="s">
+      <c r="B128" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="C128" s="124"/>
+      <c r="C128" s="123"/>
       <c r="D128" s="10"/>
       <c r="E128" s="10"/>
       <c r="F128" s="10">
@@ -8782,13 +8782,13 @@
       <c r="AF128" s="70"/>
     </row>
     <row r="129" spans="1:255" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="169">
+      <c r="A129" s="121">
         <v>95</v>
       </c>
-      <c r="B129" s="123" t="s">
+      <c r="B129" s="122" t="s">
         <v>275</v>
       </c>
-      <c r="C129" s="124"/>
+      <c r="C129" s="123"/>
       <c r="D129" s="10"/>
       <c r="E129" s="10"/>
       <c r="F129" s="10">
@@ -8821,13 +8821,13 @@
       <c r="AF129" s="70"/>
     </row>
     <row r="130" spans="1:255" s="20" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="169">
+      <c r="A130" s="121">
         <v>96</v>
       </c>
-      <c r="B130" s="122" t="s">
+      <c r="B130" s="124" t="s">
         <v>276</v>
       </c>
-      <c r="C130" s="122"/>
+      <c r="C130" s="124"/>
       <c r="D130" s="10"/>
       <c r="E130" s="10"/>
       <c r="F130" s="10">
@@ -10486,6 +10486,122 @@
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
     <mergeCell ref="B128:C128"/>
     <mergeCell ref="B129:C129"/>
     <mergeCell ref="B130:C130"/>
@@ -10510,122 +10626,6 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B117:C117"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/DailyReport/template.xlsx
+++ b/DailyReport/template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="279">
   <si>
     <t>產品別</t>
   </si>
@@ -463,9 +463,6 @@
   </si>
   <si>
     <t>56</t>
-  </si>
-  <si>
-    <t>金鑽鳯梨</t>
   </si>
   <si>
     <t>57</t>
@@ -2449,6 +2446,15 @@
   <si>
     <t>七星鱸
 (池邊)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鑽鳯梨 
+(產地)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>茂谷柑</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -3411,13 +3417,13 @@
     <xf numFmtId="179" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3740,8 +3746,8 @@
   <dimension ref="A1:IU1913"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
+      <pane ySplit="8" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q122" sqref="Q122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -3797,7 +3803,7 @@
     </row>
     <row r="3" spans="1:32" ht="51" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3" s="128"/>
       <c r="C3" s="128"/>
@@ -3850,10 +3856,10 @@
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
       <c r="Q5" s="99" t="s">
+        <v>208</v>
+      </c>
+      <c r="R5" s="147" t="s">
         <v>209</v>
-      </c>
-      <c r="R5" s="147" t="s">
-        <v>210</v>
       </c>
       <c r="S5" s="147"/>
       <c r="T5" s="147"/>
@@ -3868,10 +3874,10 @@
       <c r="D6" s="154"/>
       <c r="E6" s="155"/>
       <c r="F6" s="160" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G6" s="144" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H6" s="138" t="s">
         <v>4</v>
@@ -3928,7 +3934,7 @@
       <c r="R7" s="159"/>
       <c r="S7" s="159"/>
       <c r="T7" s="157" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U7" s="158"/>
       <c r="V7" s="153"/>
@@ -3963,25 +3969,25 @@
       </c>
       <c r="L8" s="141"/>
       <c r="M8" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="N8" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="O8" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="38" t="s">
+      <c r="P8" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="Q8" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="Q8" s="38" t="s">
+      <c r="R8" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="S8" s="38" t="s">
         <v>217</v>
-      </c>
-      <c r="S8" s="38" t="s">
-        <v>218</v>
       </c>
       <c r="T8" s="66" t="s">
         <v>6</v>
@@ -3991,7 +3997,7 @@
       </c>
       <c r="V8" s="153"/>
       <c r="W8" s="106" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X8" s="38"/>
       <c r="Y8" s="38"/>
@@ -4014,7 +4020,7 @@
       <c r="D9" s="163"/>
       <c r="E9" s="163"/>
       <c r="F9" s="163" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G9" s="57"/>
       <c r="H9" s="61"/>
@@ -4088,7 +4094,7 @@
       </c>
       <c r="C11" s="123"/>
       <c r="D11" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E11" s="10">
         <v>15.2</v>
@@ -4131,7 +4137,7 @@
       </c>
       <c r="C12" s="123"/>
       <c r="D12" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E12" s="10">
         <v>15.2</v>
@@ -4174,7 +4180,7 @@
       </c>
       <c r="C13" s="123"/>
       <c r="D13" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13" s="10">
         <v>15.2</v>
@@ -4571,7 +4577,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10">
-        <v>10.9</v>
+        <v>11.9</v>
       </c>
       <c r="G23" s="61"/>
       <c r="H23" s="61"/>
@@ -4772,7 +4778,7 @@
         <v>13.189541078088601</v>
       </c>
       <c r="H28" s="61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
@@ -4781,34 +4787,34 @@
         <v>#VALUE!</v>
       </c>
       <c r="M28" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="N28" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="N28" s="57" t="s">
-        <v>203</v>
-      </c>
       <c r="O28" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P28" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R28" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S28" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T28" s="97" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U28" s="110" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="W28" s="61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X28" s="61"/>
       <c r="Y28" s="61"/>
@@ -4837,7 +4843,7 @@
         <v>31.8203613428777</v>
       </c>
       <c r="H29" s="61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
@@ -4846,35 +4852,35 @@
         <v>#VALUE!</v>
       </c>
       <c r="M29" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="N29" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="N29" s="57" t="s">
-        <v>203</v>
-      </c>
       <c r="O29" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P29" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R29" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S29" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T29" s="97" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U29" s="110" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="V29" s="8"/>
       <c r="W29" s="61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X29" s="61"/>
       <c r="Y29" s="61"/>
@@ -4903,7 +4909,7 @@
         <v>14.17</v>
       </c>
       <c r="H30" s="61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I30" s="36"/>
       <c r="J30" s="36"/>
@@ -4912,35 +4918,35 @@
         <v>#VALUE!</v>
       </c>
       <c r="M30" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="N30" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="N30" s="57" t="s">
-        <v>203</v>
-      </c>
       <c r="O30" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P30" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R30" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S30" s="57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T30" s="97" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U30" s="110" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="V30" s="8"/>
       <c r="W30" s="61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X30" s="61"/>
       <c r="Y30" s="61"/>
@@ -6520,10 +6526,10 @@
       <c r="A71" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="165" t="s">
-        <v>226</v>
-      </c>
-      <c r="C71" s="166"/>
+      <c r="B71" s="166" t="s">
+        <v>225</v>
+      </c>
+      <c r="C71" s="167"/>
       <c r="D71" s="58"/>
       <c r="E71" s="58"/>
       <c r="F71" s="10">
@@ -6558,14 +6564,14 @@
     </row>
     <row r="72" spans="1:32" s="70" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="117"/>
-      <c r="B72" s="167" t="s">
-        <v>227</v>
+      <c r="B72" s="165" t="s">
+        <v>226</v>
       </c>
       <c r="C72" s="123"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
       <c r="F72" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G72" s="61"/>
       <c r="H72" s="61"/>
@@ -6595,7 +6601,7 @@
     <row r="73" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="52"/>
       <c r="B73" s="150" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C73" s="151"/>
       <c r="D73" s="151">
@@ -6603,7 +6609,7 @@
       </c>
       <c r="E73" s="152"/>
       <c r="F73" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G73" s="61"/>
       <c r="H73" s="61"/>
@@ -6675,13 +6681,13 @@
         <v>124</v>
       </c>
       <c r="B75" s="122" t="s">
-        <v>125</v>
+        <v>277</v>
       </c>
       <c r="C75" s="123"/>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
       <c r="F75" s="10">
-        <v>10.4</v>
+        <v>7.6</v>
       </c>
       <c r="G75" s="61"/>
       <c r="H75" s="61"/>
@@ -6711,10 +6717,10 @@
     </row>
     <row r="76" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="122" t="s">
         <v>126</v>
-      </c>
-      <c r="B76" s="122" t="s">
-        <v>127</v>
       </c>
       <c r="C76" s="123"/>
       <c r="D76" s="10"/>
@@ -6754,13 +6760,13 @@
         <v>0</v>
       </c>
       <c r="B77" s="122" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C77" s="123"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G77" s="61"/>
       <c r="H77" s="61"/>
@@ -6790,10 +6796,10 @@
     </row>
     <row r="78" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="122" t="s">
         <v>129</v>
-      </c>
-      <c r="B78" s="122" t="s">
-        <v>130</v>
       </c>
       <c r="C78" s="123"/>
       <c r="D78" s="10"/>
@@ -6830,10 +6836,10 @@
     </row>
     <row r="79" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" s="122" t="s">
         <v>131</v>
-      </c>
-      <c r="B79" s="122" t="s">
-        <v>132</v>
       </c>
       <c r="C79" s="123"/>
       <c r="D79" s="10"/>
@@ -6870,10 +6876,10 @@
     </row>
     <row r="80" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B80" s="122" t="s">
         <v>133</v>
-      </c>
-      <c r="B80" s="122" t="s">
-        <v>134</v>
       </c>
       <c r="C80" s="123"/>
       <c r="D80" s="10"/>
@@ -6909,10 +6915,10 @@
     </row>
     <row r="81" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81" s="122" t="s">
         <v>135</v>
-      </c>
-      <c r="B81" s="122" t="s">
-        <v>136</v>
       </c>
       <c r="C81" s="123"/>
       <c r="D81" s="10"/>
@@ -6948,10 +6954,10 @@
     </row>
     <row r="82" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" s="122" t="s">
         <v>137</v>
-      </c>
-      <c r="B82" s="122" t="s">
-        <v>138</v>
       </c>
       <c r="C82" s="123"/>
       <c r="D82" s="10"/>
@@ -6988,16 +6994,16 @@
     </row>
     <row r="83" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" s="122" t="s">
         <v>139</v>
-      </c>
-      <c r="B83" s="122" t="s">
-        <v>140</v>
       </c>
       <c r="C83" s="123"/>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G83" s="61"/>
       <c r="H83" s="61"/>
@@ -7028,16 +7034,16 @@
     </row>
     <row r="84" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" s="122" t="s">
         <v>141</v>
-      </c>
-      <c r="B84" s="122" t="s">
-        <v>142</v>
       </c>
       <c r="C84" s="123"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G84" s="61"/>
       <c r="H84" s="61"/>
@@ -7068,16 +7074,16 @@
     </row>
     <row r="85" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="B85" s="122" t="s">
         <v>143</v>
-      </c>
-      <c r="B85" s="122" t="s">
-        <v>144</v>
       </c>
       <c r="C85" s="123"/>
       <c r="D85" s="10"/>
       <c r="E85" s="10"/>
       <c r="F85" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G85" s="61"/>
       <c r="H85" s="61"/>
@@ -7108,16 +7114,16 @@
     </row>
     <row r="86" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" s="122" t="s">
         <v>145</v>
-      </c>
-      <c r="B86" s="122" t="s">
-        <v>146</v>
       </c>
       <c r="C86" s="123"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
       <c r="F86" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G86" s="61"/>
       <c r="H86" s="61"/>
@@ -7148,16 +7154,16 @@
     </row>
     <row r="87" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87" s="122" t="s">
         <v>147</v>
-      </c>
-      <c r="B87" s="122" t="s">
-        <v>148</v>
       </c>
       <c r="C87" s="123"/>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
       <c r="F87" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G87" s="61"/>
       <c r="H87" s="61"/>
@@ -7188,16 +7194,16 @@
     </row>
     <row r="88" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B88" s="122" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C88" s="123"/>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
       <c r="F88" s="10">
-        <v>20.7</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="G88" s="61"/>
       <c r="H88" s="61"/>
@@ -7227,16 +7233,16 @@
     </row>
     <row r="89" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B89" s="122" t="s">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="C89" s="123"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
-      <c r="F89" s="10" t="s">
-        <v>220</v>
+      <c r="F89" s="10">
+        <v>19.3</v>
       </c>
       <c r="G89" s="61"/>
       <c r="H89" s="61"/>
@@ -7266,7 +7272,7 @@
     </row>
     <row r="90" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B90" s="122" t="s">
         <v>80</v>
@@ -7275,7 +7281,7 @@
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G90" s="61"/>
       <c r="H90" s="61"/>
@@ -7305,7 +7311,7 @@
     </row>
     <row r="91" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B91" s="122" t="s">
         <v>80</v>
@@ -7314,7 +7320,7 @@
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
       <c r="F91" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G91" s="61"/>
       <c r="H91" s="61"/>
@@ -7344,7 +7350,7 @@
     </row>
     <row r="92" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B92" s="122" t="s">
         <v>80</v>
@@ -7353,7 +7359,7 @@
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
       <c r="F92" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G92" s="61"/>
       <c r="H92" s="61"/>
@@ -7383,7 +7389,7 @@
     </row>
     <row r="93" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B93" s="122" t="s">
         <v>80</v>
@@ -7392,7 +7398,7 @@
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
       <c r="F93" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G93" s="61"/>
       <c r="H93" s="61"/>
@@ -7422,7 +7428,7 @@
     </row>
     <row r="94" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B94" s="122" t="s">
         <v>80</v>
@@ -7431,7 +7437,7 @@
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
       <c r="F94" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G94" s="61"/>
       <c r="H94" s="61"/>
@@ -7461,7 +7467,7 @@
     </row>
     <row r="95" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B95" s="122" t="s">
         <v>80</v>
@@ -7470,7 +7476,7 @@
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
       <c r="F95" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G95" s="61"/>
       <c r="H95" s="61"/>
@@ -7500,7 +7506,7 @@
     </row>
     <row r="96" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B96" s="122" t="s">
         <v>80</v>
@@ -7509,7 +7515,7 @@
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
       <c r="F96" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G96" s="61"/>
       <c r="H96" s="61"/>
@@ -7539,7 +7545,7 @@
     </row>
     <row r="97" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B97" s="122" t="s">
         <v>80</v>
@@ -7548,7 +7554,7 @@
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G97" s="61"/>
       <c r="H97" s="61"/>
@@ -7578,7 +7584,7 @@
     </row>
     <row r="98" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B98" s="122" t="s">
         <v>80</v>
@@ -7587,7 +7593,7 @@
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
       <c r="F98" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G98" s="61"/>
       <c r="H98" s="61"/>
@@ -7617,16 +7623,16 @@
     </row>
     <row r="99" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B99" s="122" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C99" s="123"/>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
       <c r="F99" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G99" s="61"/>
       <c r="H99" s="61"/>
@@ -7656,16 +7662,16 @@
     </row>
     <row r="100" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="B100" s="122" t="s">
         <v>161</v>
-      </c>
-      <c r="B100" s="122" t="s">
-        <v>162</v>
       </c>
       <c r="C100" s="123"/>
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
       <c r="F100" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G100" s="61"/>
       <c r="H100" s="61"/>
@@ -7695,16 +7701,16 @@
     </row>
     <row r="101" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="B101" s="168" t="s">
         <v>163</v>
-      </c>
-      <c r="B101" s="168" t="s">
-        <v>164</v>
       </c>
       <c r="C101" s="169"/>
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
       <c r="F101" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G101" s="61"/>
       <c r="H101" s="61"/>
@@ -7734,16 +7740,16 @@
     </row>
     <row r="102" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B102" s="122" t="s">
         <v>165</v>
-      </c>
-      <c r="B102" s="122" t="s">
-        <v>166</v>
       </c>
       <c r="C102" s="123"/>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
       <c r="F102" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G102" s="61"/>
       <c r="H102" s="61"/>
@@ -7773,16 +7779,16 @@
     </row>
     <row r="103" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="B103" s="122" t="s">
         <v>167</v>
-      </c>
-      <c r="B103" s="122" t="s">
-        <v>168</v>
       </c>
       <c r="C103" s="123"/>
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
       <c r="F103" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G103" s="61"/>
       <c r="H103" s="61"/>
@@ -7812,16 +7818,16 @@
     </row>
     <row r="104" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="B104" s="122" t="s">
         <v>169</v>
-      </c>
-      <c r="B104" s="122" t="s">
-        <v>170</v>
       </c>
       <c r="C104" s="123"/>
       <c r="D104" s="10"/>
       <c r="E104" s="10"/>
       <c r="F104" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G104" s="61"/>
       <c r="H104" s="61"/>
@@ -7851,16 +7857,16 @@
     </row>
     <row r="105" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="B105" s="122" t="s">
         <v>171</v>
-      </c>
-      <c r="B105" s="122" t="s">
-        <v>172</v>
       </c>
       <c r="C105" s="123"/>
       <c r="D105" s="10"/>
       <c r="E105" s="10"/>
       <c r="F105" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G105" s="61"/>
       <c r="H105" s="61"/>
@@ -7890,16 +7896,16 @@
     </row>
     <row r="106" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B106" s="122" t="s">
         <v>173</v>
-      </c>
-      <c r="B106" s="122" t="s">
-        <v>174</v>
       </c>
       <c r="C106" s="123"/>
       <c r="D106" s="10"/>
       <c r="E106" s="10"/>
       <c r="F106" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G106" s="61"/>
       <c r="H106" s="61"/>
@@ -7929,16 +7935,16 @@
     </row>
     <row r="107" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="B107" s="122" t="s">
         <v>175</v>
-      </c>
-      <c r="B107" s="122" t="s">
-        <v>176</v>
       </c>
       <c r="C107" s="123"/>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
       <c r="F107" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G107" s="61"/>
       <c r="H107" s="61"/>
@@ -7968,16 +7974,16 @@
     </row>
     <row r="108" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="B108" s="168" t="s">
         <v>177</v>
-      </c>
-      <c r="B108" s="168" t="s">
-        <v>178</v>
       </c>
       <c r="C108" s="169"/>
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
       <c r="F108" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G108" s="61"/>
       <c r="H108" s="61"/>
@@ -8007,16 +8013,16 @@
     </row>
     <row r="109" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B109" s="168" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C109" s="169"/>
       <c r="D109" s="10"/>
       <c r="E109" s="10"/>
       <c r="F109" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G109" s="61"/>
       <c r="H109" s="61"/>
@@ -8046,16 +8052,16 @@
     </row>
     <row r="110" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B110" s="168" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C110" s="169"/>
       <c r="D110" s="10"/>
       <c r="E110" s="10"/>
       <c r="F110" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G110" s="61"/>
       <c r="H110" s="61"/>
@@ -8085,16 +8091,16 @@
     </row>
     <row r="111" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B111" s="168" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C111" s="169"/>
       <c r="D111" s="10"/>
       <c r="E111" s="10"/>
       <c r="F111" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G111" s="61"/>
       <c r="H111" s="61"/>
@@ -8124,16 +8130,16 @@
     </row>
     <row r="112" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B112" s="168" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C112" s="169"/>
       <c r="D112" s="10"/>
       <c r="E112" s="10"/>
       <c r="F112" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G112" s="61"/>
       <c r="H112" s="61"/>
@@ -8163,16 +8169,16 @@
     </row>
     <row r="113" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B113" s="168" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C113" s="169"/>
       <c r="D113" s="10"/>
       <c r="E113" s="10"/>
       <c r="F113" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G113" s="61"/>
       <c r="H113" s="61"/>
@@ -8202,16 +8208,16 @@
     </row>
     <row r="114" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B114" s="168" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C114" s="169"/>
       <c r="D114" s="10"/>
       <c r="E114" s="10"/>
       <c r="F114" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G114" s="61"/>
       <c r="H114" s="61"/>
@@ -8241,16 +8247,16 @@
     </row>
     <row r="115" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B115" s="122" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C115" s="123"/>
       <c r="D115" s="10"/>
       <c r="E115" s="10"/>
       <c r="F115" s="10">
-        <v>48.9</v>
+        <v>53</v>
       </c>
       <c r="G115" s="61"/>
       <c r="H115" s="61"/>
@@ -8280,16 +8286,16 @@
     </row>
     <row r="116" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B116" s="122" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C116" s="123"/>
       <c r="D116" s="10"/>
       <c r="E116" s="10"/>
       <c r="F116" s="10">
-        <v>92</v>
+        <v>91.8</v>
       </c>
       <c r="G116" s="61"/>
       <c r="H116" s="61"/>
@@ -8319,16 +8325,16 @@
     </row>
     <row r="117" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B117" s="122" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C117" s="123"/>
       <c r="D117" s="10"/>
       <c r="E117" s="10"/>
       <c r="F117" s="10">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="G117" s="61"/>
       <c r="H117" s="61"/>
@@ -8358,16 +8364,16 @@
     </row>
     <row r="118" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B118" s="122" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C118" s="123"/>
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
       <c r="F118" s="10">
-        <v>56</v>
+        <v>55.8</v>
       </c>
       <c r="G118" s="61"/>
       <c r="H118" s="61"/>
@@ -8397,16 +8403,16 @@
     </row>
     <row r="119" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B119" s="122" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C119" s="123"/>
       <c r="D119" s="10"/>
       <c r="E119" s="10"/>
       <c r="F119" s="10">
-        <v>53.8</v>
+        <v>53.3</v>
       </c>
       <c r="G119" s="61"/>
       <c r="H119" s="61"/>
@@ -8437,16 +8443,16 @@
     </row>
     <row r="120" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B120" s="122" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C120" s="123"/>
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
       <c r="F120" s="10">
-        <v>41.5</v>
+        <v>39.6</v>
       </c>
       <c r="G120" s="61"/>
       <c r="H120" s="61"/>
@@ -8477,10 +8483,10 @@
     </row>
     <row r="121" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B121" s="122" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C121" s="123"/>
       <c r="D121" s="10"/>
@@ -8516,16 +8522,16 @@
     </row>
     <row r="122" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="B122" s="122" t="s">
         <v>192</v>
-      </c>
-      <c r="B122" s="122" t="s">
-        <v>193</v>
       </c>
       <c r="C122" s="123"/>
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
       <c r="F122" s="10">
-        <v>46.92</v>
+        <v>47.04</v>
       </c>
       <c r="G122" s="63"/>
       <c r="H122" s="63"/>
@@ -8555,16 +8561,16 @@
     </row>
     <row r="123" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="B123" s="122" t="s">
         <v>194</v>
-      </c>
-      <c r="B123" s="122" t="s">
-        <v>195</v>
       </c>
       <c r="C123" s="123"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10">
-        <v>35.840000000000003</v>
+        <v>36.159999999999997</v>
       </c>
       <c r="G123" s="63"/>
       <c r="H123" s="63"/>
@@ -8594,16 +8600,16 @@
     </row>
     <row r="124" spans="1:32" s="4" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="B124" s="122" t="s">
         <v>196</v>
-      </c>
-      <c r="B124" s="122" t="s">
-        <v>197</v>
       </c>
       <c r="C124" s="123"/>
       <c r="D124" s="10"/>
       <c r="E124" s="10"/>
-      <c r="F124" s="10">
-        <v>508.9</v>
+      <c r="F124" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="G124" s="63"/>
       <c r="H124" s="63"/>
@@ -8633,17 +8639,15 @@
     </row>
     <row r="125" spans="1:32" s="70" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B125" s="122" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C125" s="123"/>
       <c r="D125" s="10"/>
       <c r="E125" s="10"/>
-      <c r="F125" s="10">
-        <v>77.959999999999994</v>
-      </c>
+      <c r="F125" s="10"/>
       <c r="G125" s="63"/>
       <c r="H125" s="63"/>
       <c r="I125" s="46"/>
@@ -8670,16 +8674,16 @@
     </row>
     <row r="126" spans="1:32" s="70" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B126" s="122" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C126" s="123"/>
       <c r="D126" s="10"/>
       <c r="E126" s="10"/>
       <c r="F126" s="10">
-        <v>160.51</v>
+        <v>163.54</v>
       </c>
       <c r="G126" s="63"/>
       <c r="H126" s="63"/>
@@ -8707,16 +8711,16 @@
     </row>
     <row r="127" spans="1:32" s="70" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="B127" s="124" t="s">
         <v>200</v>
-      </c>
-      <c r="B127" s="124" t="s">
-        <v>201</v>
       </c>
       <c r="C127" s="124"/>
       <c r="D127" s="10"/>
       <c r="E127" s="10"/>
       <c r="F127" s="10">
-        <v>61.66</v>
+        <v>59.57</v>
       </c>
       <c r="G127" s="63"/>
       <c r="H127" s="63"/>
@@ -8747,13 +8751,13 @@
         <v>94</v>
       </c>
       <c r="B128" s="122" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C128" s="123"/>
       <c r="D128" s="10"/>
       <c r="E128" s="10"/>
       <c r="F128" s="10">
-        <v>78</v>
+        <v>78.8</v>
       </c>
       <c r="G128" s="63"/>
       <c r="H128" s="63"/>
@@ -8786,13 +8790,13 @@
         <v>95</v>
       </c>
       <c r="B129" s="122" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C129" s="123"/>
       <c r="D129" s="10"/>
       <c r="E129" s="10"/>
       <c r="F129" s="10">
-        <v>30.9</v>
+        <v>42.47</v>
       </c>
       <c r="G129" s="63"/>
       <c r="H129" s="63"/>
@@ -8825,13 +8829,13 @@
         <v>96</v>
       </c>
       <c r="B130" s="124" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C130" s="124"/>
       <c r="D130" s="10"/>
       <c r="E130" s="10"/>
       <c r="F130" s="10">
-        <v>125.4</v>
+        <v>130.63</v>
       </c>
       <c r="G130" s="61"/>
       <c r="H130" s="61"/>
@@ -9085,16 +9089,16 @@
     </row>
     <row r="131" spans="1:255" s="70" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B131" s="114" t="s">
         <v>224</v>
-      </c>
-      <c r="B131" s="114" t="s">
-        <v>225</v>
       </c>
       <c r="C131" s="119"/>
       <c r="D131" s="115"/>
       <c r="E131" s="19"/>
       <c r="F131" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G131" s="19"/>
       <c r="H131" s="48"/>
@@ -9120,10 +9124,10 @@
     </row>
     <row r="132" spans="1:255" s="70" customFormat="1" ht="21.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B132" s="114" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D132" s="54"/>
       <c r="E132" s="116"/>
@@ -9151,7 +9155,7 @@
     </row>
     <row r="133" spans="1:255" s="70" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A133" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B133" s="71"/>
       <c r="C133" s="84"/>
@@ -9178,7 +9182,7 @@
     </row>
     <row r="134" spans="1:255" s="70" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B134" s="71"/>
       <c r="C134" s="84"/>
@@ -9205,7 +9209,7 @@
     </row>
     <row r="135" spans="1:255" s="70" customFormat="1" ht="19.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B135" s="56"/>
       <c r="C135" s="56"/>
@@ -9235,7 +9239,7 @@
     </row>
     <row r="136" spans="1:255" s="90" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="76" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B136" s="85"/>
       <c r="C136" s="86"/>
@@ -9262,10 +9266,10 @@
     </row>
     <row r="137" spans="1:255" s="90" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="76" t="s">
+        <v>253</v>
+      </c>
+      <c r="B137" s="49" t="s">
         <v>254</v>
-      </c>
-      <c r="B137" s="49" t="s">
-        <v>255</v>
       </c>
       <c r="C137" s="50"/>
       <c r="D137" s="51"/>
@@ -9292,7 +9296,7 @@
     <row r="138" spans="1:255" s="90" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="76"/>
       <c r="B138" s="49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C138" s="50"/>
       <c r="D138" s="51"/>
@@ -9319,7 +9323,7 @@
     <row r="139" spans="1:255" s="90" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="76"/>
       <c r="B139" s="49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C139" s="50"/>
       <c r="D139" s="51"/>
@@ -9345,7 +9349,7 @@
     </row>
     <row r="140" spans="1:255" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="76" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B140" s="74"/>
       <c r="C140" s="72"/>
@@ -9372,7 +9376,7 @@
     </row>
     <row r="141" spans="1:255" s="70" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="76" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B141" s="74"/>
       <c r="C141" s="72"/>
@@ -9399,7 +9403,7 @@
     </row>
     <row r="142" spans="1:255" s="70" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="56" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B142" s="74"/>
       <c r="C142" s="72"/>
@@ -9426,7 +9430,7 @@
     </row>
     <row r="143" spans="1:255" s="90" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="76" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B143" s="85"/>
       <c r="C143" s="86"/>
@@ -9454,7 +9458,7 @@
     <row r="144" spans="1:255" s="90" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="76"/>
       <c r="B144" s="85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C144" s="86"/>
       <c r="D144" s="85"/>
@@ -9481,7 +9485,7 @@
     <row r="145" spans="1:47" s="90" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="76"/>
       <c r="B145" s="85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C145" s="86"/>
       <c r="D145" s="85"/>
@@ -9508,7 +9512,7 @@
     <row r="146" spans="1:47" s="90" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="76"/>
       <c r="B146" s="85" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C146" s="86"/>
       <c r="D146" s="85"/>
@@ -9535,7 +9539,7 @@
     <row r="147" spans="1:47" s="90" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="76"/>
       <c r="B147" s="85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C147" s="86"/>
       <c r="D147" s="85"/>
@@ -9561,7 +9565,7 @@
     </row>
     <row r="148" spans="1:47" s="70" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B148" s="74"/>
       <c r="C148" s="72"/>
@@ -9588,7 +9592,7 @@
     </row>
     <row r="149" spans="1:47" s="90" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B149" s="85"/>
       <c r="C149" s="86"/>
@@ -9615,7 +9619,7 @@
     </row>
     <row r="150" spans="1:47" s="55" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B150" s="56"/>
       <c r="C150" s="72"/>
@@ -9642,7 +9646,7 @@
     </row>
     <row r="151" spans="1:47" s="55" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="56" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B151" s="56"/>
       <c r="C151" s="72"/>
@@ -9669,7 +9673,7 @@
     </row>
     <row r="152" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A152" s="76" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B152" s="71"/>
       <c r="C152" s="84"/>
@@ -9694,7 +9698,7 @@
     </row>
     <row r="153" spans="1:47" s="73" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B153" s="71"/>
       <c r="C153" s="84"/>
@@ -9721,7 +9725,7 @@
     </row>
     <row r="154" spans="1:47" s="70" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="76" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B154" s="94"/>
       <c r="C154" s="95"/>
@@ -9748,7 +9752,7 @@
     </row>
     <row r="155" spans="1:47" s="103" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="76" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B155" s="100"/>
       <c r="C155" s="6"/>
@@ -9775,7 +9779,7 @@
     </row>
     <row r="156" spans="1:47" s="73" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="76" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B156" s="71"/>
       <c r="C156" s="84"/>
@@ -9802,7 +9806,7 @@
     </row>
     <row r="157" spans="1:47" s="73" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="76" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B157" s="71"/>
       <c r="C157" s="84"/>
@@ -9829,7 +9833,7 @@
     </row>
     <row r="158" spans="1:47" s="70" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B158" s="71"/>
       <c r="C158" s="84"/>
@@ -9856,7 +9860,7 @@
     </row>
     <row r="159" spans="1:47" s="70" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B159" s="71"/>
       <c r="C159" s="84"/>
@@ -9883,7 +9887,7 @@
     </row>
     <row r="160" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A160" s="76" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B160" s="84"/>
       <c r="C160" s="84"/>
@@ -9908,7 +9912,7 @@
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" s="76" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D161" s="72"/>
       <c r="E161" s="72"/>
@@ -9925,7 +9929,7 @@
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" s="76" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D162" s="72"/>
       <c r="E162" s="72"/>
@@ -10519,9 +10523,7 @@
     <mergeCell ref="B110:C110"/>
     <mergeCell ref="B107:C107"/>
     <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B102:C102"/>
     <mergeCell ref="B93:C93"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="B57:C57"/>
@@ -10538,10 +10540,19 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B102:C102"/>
     <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B66:C66"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B50:C50"/>
@@ -10551,15 +10562,9 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B60:C60"/>
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
@@ -10584,8 +10589,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B66:C66"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B73:E73"/>
@@ -10602,6 +10605,7 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B128:C128"/>
     <mergeCell ref="B129:C129"/>
     <mergeCell ref="B130:C130"/>
